--- a/main/ig/StructureDefinition-prescription-item.xlsx
+++ b/main/ig/StructureDefinition-prescription-item.xlsx
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://ltsi.univ-rennes.fr/StructureDefinition/PrescriptionItem</t>
+    <t>http://ltsi.univ-rennes.fr/StructureDefinition/prescription-item</t>
   </si>
   <si>
     <t>Version</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-22T14:46:13+00:00</t>
+    <t>2024-03-22T15:45:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -719,7 +719,7 @@
     <t>MedicationRequest.basedOn</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://ltsi.univ-rennes.fr/StructureDefinition/Prescription)
+    <t xml:space="preserve">Reference(http://ltsi.univ-rennes.fr/StructureDefinition/prescription)
 </t>
   </si>
   <si>
@@ -1039,7 +1039,7 @@
     <t>MedicationRequest.medication</t>
   </si>
   <si>
-    <t xml:space="preserve">CodeableReference(http://ltsi.univ-rennes.fr/StructureDefinition/OncologyMedication)
+    <t xml:space="preserve">CodeableReference(http://ltsi.univ-rennes.fr/StructureDefinition/oncology-medication)
 </t>
   </si>
   <si>
@@ -1205,7 +1205,7 @@
     <t>MedicationRequest.requester</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://ltsi.univ-rennes.fr/StructureDefinition/OncologyPractitioner)
+    <t xml:space="preserve">Reference(http://ltsi.univ-rennes.fr/StructureDefinition/oncology-practitioner)
 </t>
   </si>
   <si>

--- a/main/ig/StructureDefinition-prescription-item.xlsx
+++ b/main/ig/StructureDefinition-prescription-item.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-22T15:45:14+00:00</t>
+    <t>2024-03-25T08:26:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-prescription-item.xlsx
+++ b/main/ig/StructureDefinition-prescription-item.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-25T09:35:47+00:00</t>
+    <t>2024-03-25T10:33:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-prescription-item.xlsx
+++ b/main/ig/StructureDefinition-prescription-item.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-25T10:33:32+00:00</t>
+    <t>2024-03-25T10:35:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-prescription-item.xlsx
+++ b/main/ig/StructureDefinition-prescription-item.xlsx
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://ltsi.univ-rennes.fr/StructureDefinition/PrescriptionItem</t>
+    <t>http://ltsi.univ-rennes.fr/StructureDefinition/prescription-item</t>
   </si>
   <si>
     <t>Version</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-25T10:35:41+00:00</t>
+    <t>2024-03-27T13:32:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -719,7 +719,7 @@
     <t>MedicationRequest.basedOn</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://ltsi.univ-rennes.fr/StructureDefinition/Prescription)
+    <t xml:space="preserve">Reference(http://ltsi.univ-rennes.fr/StructureDefinition/prescription)
 </t>
   </si>
   <si>
@@ -1039,7 +1039,7 @@
     <t>MedicationRequest.medication</t>
   </si>
   <si>
-    <t xml:space="preserve">CodeableReference(http://ltsi.univ-rennes.fr/StructureDefinition/OncologyMedication)
+    <t xml:space="preserve">CodeableReference(http://ltsi.univ-rennes.fr/StructureDefinition/oncology-medication)
 </t>
   </si>
   <si>
@@ -1205,7 +1205,7 @@
     <t>MedicationRequest.requester</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://ltsi.univ-rennes.fr/StructureDefinition/OncologyPractitioner)
+    <t xml:space="preserve">Reference(http://ltsi.univ-rennes.fr/StructureDefinition/oncology-practitioner)
 </t>
   </si>
   <si>

--- a/main/ig/StructureDefinition-prescription-item.xlsx
+++ b/main/ig/StructureDefinition-prescription-item.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-27T13:32:11+00:00</t>
+    <t>2024-03-27T14:50:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1761,7 +1761,7 @@
     <t>MedicationRequest.dosageInstruction.timing.repeat.bounds[x].start</t>
   </si>
   <si>
-    <t>Start of the dosage period</t>
+    <t>Minimum start time for event</t>
   </si>
   <si>
     <t>MedicationRequest.dosageInstruction.timing.repeat.bounds[x]:boundsPeriod.end</t>
@@ -1770,7 +1770,7 @@
     <t>MedicationRequest.dosageInstruction.timing.repeat.bounds[x].end</t>
   </si>
   <si>
-    <t>End time with inclusive boundary, if not ongoing</t>
+    <t>Maximum start time for event</t>
   </si>
   <si>
     <t>MedicationRequest.dosageInstruction.timing.repeat.count</t>
@@ -13254,7 +13254,7 @@
         <v>89</v>
       </c>
       <c r="H85" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="I85" t="s" s="2">
         <v>79</v>

--- a/main/ig/StructureDefinition-prescription-item.xlsx
+++ b/main/ig/StructureDefinition-prescription-item.xlsx
@@ -60,13 +60,13 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-27T14:50:30+00:00</t>
+    <t>2024-03-29T13:41:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>DOMASIA team of the Signal and Image Processing Laboratory (LTSI)</t>
+    <t>DOMASIA team of the Signal and Image Processing Laboratory (LTSI) and KEREVAL</t>
   </si>
   <si>
     <t>Contact</t>

--- a/main/ig/StructureDefinition-prescription-item.xlsx
+++ b/main/ig/StructureDefinition-prescription-item.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-29T13:41:33+00:00</t>
+    <t>2024-03-29T13:47:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-prescription-item.xlsx
+++ b/main/ig/StructureDefinition-prescription-item.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-29T13:47:24+00:00</t>
+    <t>2024-04-18T13:54:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>DOMASIA team of the Signal and Image Processing Laboratory (LTSI) and KEREVAL (https://ltsi.univ-rennes.fr)</t>
   </si>
   <si>
     <t>Description</t>
